--- a/src/UPDATE/base_data/UPDATE_glacier_description_IT.xlsx
+++ b/src/UPDATE/base_data/UPDATE_glacier_description_IT.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="9470"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="9465"/>
   </bookViews>
   <sheets>
-    <sheet name="fr" sheetId="8" r:id="rId1"/>
+    <sheet name="it" sheetId="8" r:id="rId1"/>
     <sheet name="SQL" sheetId="9" r:id="rId2"/>
     <sheet name="SQL4SpecialChar" sheetId="10" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fr!$A$1:$F$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">it!$A$1:$F$155</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="323">
   <si>
     <t>Gornergletscher</t>
   </si>
@@ -547,9 +547,6 @@
     <t>801e8670-4ec8-11e8-9ca9-985fd331b2ee</t>
   </si>
   <si>
-    <t>81722f8f-4ec8-11e8-8842-985fd331b2ee</t>
-  </si>
-  <si>
     <t>80f425f0-4ec8-11e8-81a5-985fd331b2ee</t>
   </si>
   <si>
@@ -598,9 +595,6 @@
     <t>Geltengletscher</t>
   </si>
   <si>
-    <t>810ae240-4ec8-11e8-9773-985fd331b2ee</t>
-  </si>
-  <si>
     <t>810d051e-4ec8-11e8-8e0f-985fd331b2ee</t>
   </si>
   <si>
@@ -958,9 +952,6 @@
     <t>82098d8f-4ec8-11e8-936e-985fd331b2ee</t>
   </si>
   <si>
-    <t>81e98270-4ec8-11e8-86b3-985fd331b2ee</t>
-  </si>
-  <si>
     <t>81ec1a80-4ec8-11e8-8d89-985fd331b2ee</t>
   </si>
   <si>
@@ -995,6 +986,18 @@
   </si>
   <si>
     <t>glacier_name (file)</t>
+  </si>
+  <si>
+    <t>8176754f-4ec8-11e8-9a29-985fd331b2ee</t>
+  </si>
+  <si>
+    <t>81103970-4ec8-11e8-8d3b-985fd331b2ee</t>
+  </si>
+  <si>
+    <t>81ed04e1-4ec8-11e8-a1f7-985fd331b2ee</t>
+  </si>
+  <si>
+    <t>Replace ' with '' in the translation table befor exporting to csv</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1027,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1043,6 +1046,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1056,7 +1071,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1066,10 +1081,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1352,41 +1369,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.90625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="37.90625" customWidth="1"/>
-    <col min="3" max="3" width="33.26953125" customWidth="1"/>
-    <col min="4" max="4" width="35.7265625" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" customWidth="1"/>
-    <col min="6" max="6" width="255.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="255.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>157</v>
       </c>
@@ -1398,10 +1415,10 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>158</v>
       </c>
@@ -1413,10 +1430,10 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>159</v>
       </c>
@@ -1428,10 +1445,10 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>160</v>
       </c>
@@ -1443,10 +1460,10 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>161</v>
       </c>
@@ -1458,10 +1475,10 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>162</v>
       </c>
@@ -1473,10 +1490,10 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>163</v>
       </c>
@@ -1488,10 +1505,10 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>164</v>
       </c>
@@ -1503,10 +1520,10 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>165</v>
       </c>
@@ -1518,11 +1535,11 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>166</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1533,10 +1550,10 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>167</v>
       </c>
@@ -1548,10 +1565,10 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>168</v>
       </c>
@@ -1563,11 +1580,11 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>169</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1578,11 +1595,11 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>171</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1593,12 +1610,12 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>319</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>31</v>
@@ -1608,12 +1625,12 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>20</v>
@@ -1623,12 +1640,12 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>34</v>
@@ -1638,12 +1655,12 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>43</v>
@@ -1653,12 +1670,12 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>5</v>
@@ -1668,12 +1685,12 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>37</v>
@@ -1683,12 +1700,12 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>1</v>
@@ -1698,27 +1715,27 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>106</v>
@@ -1728,12 +1745,12 @@
       </c>
       <c r="D24" s="1"/>
       <c r="E24" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>127</v>
@@ -1743,12 +1760,12 @@
       </c>
       <c r="D25" s="1"/>
       <c r="E25" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>23</v>
@@ -1758,12 +1775,12 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>38</v>
@@ -1773,27 +1790,27 @@
       </c>
       <c r="D27" s="1"/>
       <c r="E27" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>46</v>
@@ -1803,12 +1820,12 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>7</v>
@@ -1818,12 +1835,12 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>189</v>
+        <v>320</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>88</v>
@@ -1833,12 +1850,12 @@
       </c>
       <c r="D31" s="1"/>
       <c r="E31" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>139</v>
@@ -1848,12 +1865,12 @@
       </c>
       <c r="D32" s="1"/>
       <c r="E32" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>117</v>
@@ -1863,12 +1880,12 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>110</v>
@@ -1878,12 +1895,12 @@
       </c>
       <c r="D34" s="1"/>
       <c r="E34" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>116</v>
@@ -1893,12 +1910,12 @@
       </c>
       <c r="D35" s="1"/>
       <c r="E35" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>131</v>
@@ -1908,12 +1925,12 @@
       </c>
       <c r="D36" s="1"/>
       <c r="E36" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>125</v>
@@ -1923,12 +1940,12 @@
       </c>
       <c r="D37" s="1"/>
       <c r="E37" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>57</v>
@@ -1938,12 +1955,12 @@
       </c>
       <c r="D38" s="1"/>
       <c r="E38" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>64</v>
@@ -1953,12 +1970,12 @@
       </c>
       <c r="D39" s="1"/>
       <c r="E39" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>86</v>
@@ -1968,27 +1985,27 @@
       </c>
       <c r="D40" s="1"/>
       <c r="E40" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>91</v>
@@ -1998,12 +2015,12 @@
       </c>
       <c r="D42" s="1"/>
       <c r="E42" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>96</v>
@@ -2013,12 +2030,12 @@
       </c>
       <c r="D43" s="1"/>
       <c r="E43" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>75</v>
@@ -2028,12 +2045,12 @@
       </c>
       <c r="D44" s="1"/>
       <c r="E44" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>72</v>
@@ -2043,12 +2060,12 @@
       </c>
       <c r="D45" s="1"/>
       <c r="E45" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>141</v>
@@ -2058,12 +2075,12 @@
       </c>
       <c r="D46" s="1"/>
       <c r="E46" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>111</v>
@@ -2073,12 +2090,12 @@
       </c>
       <c r="D47" s="1"/>
       <c r="E47" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>66</v>
@@ -2088,12 +2105,12 @@
       </c>
       <c r="D48" s="1"/>
       <c r="E48" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>104</v>
@@ -2103,12 +2120,12 @@
       </c>
       <c r="D49" s="1"/>
       <c r="E49" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>95</v>
@@ -2118,12 +2135,12 @@
       </c>
       <c r="D50" s="1"/>
       <c r="E50" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>126</v>
@@ -2133,12 +2150,12 @@
       </c>
       <c r="D51" s="1"/>
       <c r="E51" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>87</v>
@@ -2148,27 +2165,27 @@
       </c>
       <c r="D52" s="1"/>
       <c r="E52" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>59</v>
@@ -2178,12 +2195,12 @@
       </c>
       <c r="D54" s="1"/>
       <c r="E54" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>109</v>
@@ -2193,12 +2210,12 @@
       </c>
       <c r="D55" s="1"/>
       <c r="E55" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>97</v>
@@ -2208,12 +2225,12 @@
       </c>
       <c r="D56" s="1"/>
       <c r="E56" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>61</v>
@@ -2223,12 +2240,12 @@
       </c>
       <c r="D57" s="6"/>
       <c r="E57" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>123</v>
@@ -2238,12 +2255,12 @@
       </c>
       <c r="D58" s="1"/>
       <c r="E58" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>73</v>
@@ -2253,12 +2270,12 @@
       </c>
       <c r="D59" s="1"/>
       <c r="E59" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>135</v>
@@ -2268,12 +2285,12 @@
       </c>
       <c r="D60" s="1"/>
       <c r="E60" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>70</v>
@@ -2283,12 +2300,12 @@
       </c>
       <c r="D61" s="1"/>
       <c r="E61" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>68</v>
@@ -2298,12 +2315,12 @@
       </c>
       <c r="D62" s="1"/>
       <c r="E62" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>62</v>
@@ -2313,12 +2330,12 @@
       </c>
       <c r="D63" s="1"/>
       <c r="E63" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>114</v>
@@ -2328,12 +2345,12 @@
       </c>
       <c r="D64" s="1"/>
       <c r="E64" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>112</v>
@@ -2343,12 +2360,12 @@
       </c>
       <c r="D65" s="1"/>
       <c r="E65" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>69</v>
@@ -2358,12 +2375,12 @@
       </c>
       <c r="D66" s="1"/>
       <c r="E66" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>94</v>
@@ -2373,12 +2390,12 @@
       </c>
       <c r="D67" s="1"/>
       <c r="E67" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>133</v>
@@ -2388,12 +2405,12 @@
       </c>
       <c r="D68" s="1"/>
       <c r="E68" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>101</v>
@@ -2403,12 +2420,12 @@
       </c>
       <c r="D69" s="1"/>
       <c r="E69" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="7" t="s">
-        <v>228</v>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>90</v>
@@ -2418,12 +2435,12 @@
       </c>
       <c r="D70" s="1"/>
       <c r="E70" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>103</v>
@@ -2433,12 +2450,12 @@
       </c>
       <c r="D71" s="1"/>
       <c r="E71" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>99</v>
@@ -2448,12 +2465,12 @@
       </c>
       <c r="D72" s="1"/>
       <c r="E72" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>78</v>
@@ -2463,12 +2480,12 @@
       </c>
       <c r="D73" s="1"/>
       <c r="E73" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>0</v>
@@ -2478,12 +2495,12 @@
       </c>
       <c r="D74" s="1"/>
       <c r="E74" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>17</v>
@@ -2493,12 +2510,12 @@
       </c>
       <c r="D75" s="1"/>
       <c r="E75" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>48</v>
@@ -2508,12 +2525,12 @@
       </c>
       <c r="D76" s="1"/>
       <c r="E76" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>48</v>
@@ -2523,12 +2540,12 @@
       </c>
       <c r="D77" s="1"/>
       <c r="E77" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>56</v>
@@ -2538,12 +2555,12 @@
       </c>
       <c r="D78" s="1"/>
       <c r="E78" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>39</v>
@@ -2553,12 +2570,12 @@
       </c>
       <c r="D79" s="1"/>
       <c r="E79" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>77</v>
@@ -2568,12 +2585,12 @@
       </c>
       <c r="D80" s="1"/>
       <c r="E80" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>41</v>
@@ -2583,12 +2600,12 @@
       </c>
       <c r="D81" s="1"/>
       <c r="E81" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="7" t="s">
-        <v>241</v>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>151</v>
@@ -2598,12 +2615,12 @@
       </c>
       <c r="D82" s="1"/>
       <c r="E82" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>42</v>
@@ -2613,27 +2630,27 @@
       </c>
       <c r="D83" s="1"/>
       <c r="E83" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>33</v>
@@ -2643,12 +2660,12 @@
       </c>
       <c r="D85" s="1"/>
       <c r="E85" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>19</v>
@@ -2658,12 +2675,12 @@
       </c>
       <c r="D86" s="1"/>
       <c r="E86" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>120</v>
@@ -2673,12 +2690,12 @@
       </c>
       <c r="D87" s="1"/>
       <c r="E87" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>60</v>
@@ -2688,12 +2705,12 @@
       </c>
       <c r="D88" s="1"/>
       <c r="E88" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>44</v>
@@ -2703,12 +2720,12 @@
       </c>
       <c r="D89" s="1"/>
       <c r="E89" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>105</v>
@@ -2718,12 +2735,12 @@
       </c>
       <c r="D90" s="1"/>
       <c r="E90" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>9</v>
@@ -2733,12 +2750,12 @@
       </c>
       <c r="D91" s="1"/>
       <c r="E91" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>100</v>
@@ -2748,12 +2765,12 @@
       </c>
       <c r="D92" s="1"/>
       <c r="E92" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>129</v>
@@ -2763,12 +2780,12 @@
       </c>
       <c r="D93" s="1"/>
       <c r="E93" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>18</v>
@@ -2778,12 +2795,12 @@
       </c>
       <c r="D94" s="1"/>
       <c r="E94" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>30</v>
@@ -2793,12 +2810,12 @@
       </c>
       <c r="D95" s="1"/>
       <c r="E95" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>12</v>
@@ -2808,12 +2825,12 @@
       </c>
       <c r="D96" s="1"/>
       <c r="E96" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>52</v>
@@ -2823,12 +2840,12 @@
       </c>
       <c r="D97" s="1"/>
       <c r="E97" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>21</v>
@@ -2838,12 +2855,12 @@
       </c>
       <c r="D98" s="1"/>
       <c r="E98" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>3</v>
@@ -2853,27 +2870,27 @@
       </c>
       <c r="D99" s="1"/>
       <c r="E99" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>79</v>
@@ -2883,12 +2900,12 @@
       </c>
       <c r="D101" s="1"/>
       <c r="E101" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="8" t="s">
-        <v>263</v>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
+        <v>261</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>55</v>
@@ -2898,12 +2915,12 @@
       </c>
       <c r="D102" s="1"/>
       <c r="E102" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>35</v>
@@ -2913,12 +2930,12 @@
       </c>
       <c r="D103" s="1"/>
       <c r="E103" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>54</v>
@@ -2928,27 +2945,27 @@
       </c>
       <c r="D104" s="1"/>
       <c r="E104" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>140</v>
@@ -2958,12 +2975,12 @@
       </c>
       <c r="D106" s="1"/>
       <c r="E106" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>4</v>
@@ -2973,12 +2990,12 @@
       </c>
       <c r="D107" s="1"/>
       <c r="E107" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>10</v>
@@ -2988,12 +3005,12 @@
       </c>
       <c r="D108" s="1"/>
       <c r="E108" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>13</v>
@@ -3003,12 +3020,12 @@
       </c>
       <c r="D109" s="1"/>
       <c r="E109" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>134</v>
@@ -3018,12 +3035,12 @@
       </c>
       <c r="D110" s="1"/>
       <c r="E110" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" s="7" t="s">
-        <v>273</v>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
+        <v>271</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>152</v>
@@ -3033,12 +3050,12 @@
       </c>
       <c r="D111" s="1"/>
       <c r="E111" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>149</v>
@@ -3048,12 +3065,12 @@
       </c>
       <c r="D112" s="1"/>
       <c r="E112" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>142</v>
@@ -3063,12 +3080,12 @@
       </c>
       <c r="D113" s="1"/>
       <c r="E113" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>138</v>
@@ -3078,12 +3095,12 @@
       </c>
       <c r="D114" s="1"/>
       <c r="E114" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>53</v>
@@ -3093,12 +3110,12 @@
       </c>
       <c r="D115" s="1"/>
       <c r="E115" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>15</v>
@@ -3108,12 +3125,12 @@
       </c>
       <c r="D116" s="1"/>
       <c r="E116" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>47</v>
@@ -3123,12 +3140,12 @@
       </c>
       <c r="D117" s="1"/>
       <c r="E117" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A118" s="8" t="s">
-        <v>280</v>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
+        <v>278</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>132</v>
@@ -3138,12 +3155,12 @@
       </c>
       <c r="D118" s="1"/>
       <c r="E118" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>26</v>
@@ -3153,12 +3170,12 @@
       </c>
       <c r="D119" s="1"/>
       <c r="E119" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>11</v>
@@ -3168,12 +3185,12 @@
       </c>
       <c r="D120" s="1"/>
       <c r="E120" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>49</v>
@@ -3183,12 +3200,12 @@
       </c>
       <c r="D121" s="1"/>
       <c r="E121" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>153</v>
@@ -3198,12 +3215,12 @@
       </c>
       <c r="D122" s="1"/>
       <c r="E122" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>36</v>
@@ -3213,12 +3230,12 @@
       </c>
       <c r="D123" s="1"/>
       <c r="E123" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A124" s="7" t="s">
-        <v>286</v>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="9" t="s">
+        <v>284</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>83</v>
@@ -3228,12 +3245,12 @@
       </c>
       <c r="D124" s="1"/>
       <c r="E124" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>121</v>
@@ -3243,12 +3260,12 @@
       </c>
       <c r="D125" s="1"/>
       <c r="E125" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>93</v>
@@ -3258,12 +3275,12 @@
       </c>
       <c r="D126" s="1"/>
       <c r="E126" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A127" s="7" t="s">
-        <v>289</v>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="9" t="s">
+        <v>287</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>82</v>
@@ -3273,12 +3290,12 @@
       </c>
       <c r="D127" s="1"/>
       <c r="E127" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>14</v>
@@ -3288,12 +3305,12 @@
       </c>
       <c r="D128" s="1"/>
       <c r="E128" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>136</v>
@@ -3303,12 +3320,12 @@
       </c>
       <c r="D129" s="1"/>
       <c r="E129" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>16</v>
@@ -3318,12 +3335,12 @@
       </c>
       <c r="D130" s="1"/>
       <c r="E130" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>2</v>
@@ -3333,12 +3350,12 @@
       </c>
       <c r="D131" s="1"/>
       <c r="E131" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>119</v>
@@ -3348,13 +3365,13 @@
       </c>
       <c r="D132" s="1"/>
       <c r="E132" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F132" s="2"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>76</v>
@@ -3364,12 +3381,12 @@
       </c>
       <c r="D133" s="1"/>
       <c r="E133" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A134" s="8" t="s">
-        <v>296</v>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="11" t="s">
+        <v>294</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>84</v>
@@ -3379,12 +3396,12 @@
       </c>
       <c r="D134" s="1"/>
       <c r="E134" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>80</v>
@@ -3394,12 +3411,12 @@
       </c>
       <c r="D135" s="1"/>
       <c r="E135" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>67</v>
@@ -3409,12 +3426,12 @@
       </c>
       <c r="D136" s="1"/>
       <c r="E136" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>107</v>
@@ -3424,12 +3441,12 @@
       </c>
       <c r="D137" s="1"/>
       <c r="E137" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>102</v>
@@ -3439,12 +3456,12 @@
       </c>
       <c r="D138" s="1"/>
       <c r="E138" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>85</v>
@@ -3454,12 +3471,12 @@
       </c>
       <c r="D139" s="1"/>
       <c r="E139" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>58</v>
@@ -3469,12 +3486,12 @@
       </c>
       <c r="D140" s="1"/>
       <c r="E140" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>71</v>
@@ -3484,12 +3501,12 @@
       </c>
       <c r="D141" s="1"/>
       <c r="E141" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>92</v>
@@ -3499,12 +3516,12 @@
       </c>
       <c r="D142" s="1"/>
       <c r="E142" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>65</v>
@@ -3514,12 +3531,12 @@
       </c>
       <c r="D143" s="1"/>
       <c r="E143" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A144" s="8" t="s">
-        <v>306</v>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="11" t="s">
+        <v>304</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>108</v>
@@ -3529,12 +3546,12 @@
       </c>
       <c r="D144" s="1"/>
       <c r="E144" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>74</v>
@@ -3544,12 +3561,12 @@
       </c>
       <c r="D145" s="1"/>
       <c r="E145" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>98</v>
@@ -3559,12 +3576,12 @@
       </c>
       <c r="D146" s="1"/>
       <c r="E146" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>146</v>
@@ -3574,12 +3591,12 @@
       </c>
       <c r="D147" s="1"/>
       <c r="E147" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>89</v>
@@ -3589,12 +3606,12 @@
       </c>
       <c r="D148" s="1"/>
       <c r="E148" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>130</v>
@@ -3604,12 +3621,12 @@
       </c>
       <c r="D149" s="1"/>
       <c r="E149" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>113</v>
@@ -3619,12 +3636,12 @@
       </c>
       <c r="D150" s="1"/>
       <c r="E150" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>137</v>
@@ -3634,12 +3651,12 @@
       </c>
       <c r="D151" s="1"/>
       <c r="E151" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>45</v>
@@ -3649,12 +3666,12 @@
       </c>
       <c r="D152" s="1"/>
       <c r="E152" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>40</v>
@@ -3664,12 +3681,12 @@
       </c>
       <c r="D153" s="1"/>
       <c r="E153" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>28</v>
@@ -3679,12 +3696,12 @@
       </c>
       <c r="D154" s="1"/>
       <c r="E154" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>6</v>
@@ -3694,24 +3711,24 @@
       </c>
       <c r="D155" s="1"/>
       <c r="E155" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A158" s="9"/>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="7"/>
       <c r="B158" s="4"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A160" s="9"/>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="7"/>
       <c r="B160" s="4"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
     </row>
   </sheetData>
@@ -3722,941 +3739,946 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A155"/>
+  <dimension ref="A1:A156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A155"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F1,"' WHERE fk_glacier='",fr!A1,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="1" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F1,"' WHERE fk_glacier='",it!A1,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='description' WHERE fk_glacier='pk_glacier' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F2,"' WHERE fk_glacier='",fr!A2,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F2,"' WHERE fk_glacier='",it!A2,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='8013ff1e-4ec8-11e8-b760-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F3,"' WHERE fk_glacier='",fr!A3,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F3,"' WHERE fk_glacier='",it!A3,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7fdf0c70-4ec8-11e8-a467-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F4,"' WHERE fk_glacier='",fr!A4,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F4,"' WHERE fk_glacier='",it!A4,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='807272cf-4ec8-11e8-8bfd-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F5,"' WHERE fk_glacier='",fr!A5,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F5,"' WHERE fk_glacier='",it!A5,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f7a3021-4ec8-11e8-8281-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F6,"' WHERE fk_glacier='",fr!A6,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F6,"' WHERE fk_glacier='",it!A6,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f9f6b61-4ec8-11e8-adbe-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F7,"' WHERE fk_glacier='",fr!A7,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F7,"' WHERE fk_glacier='",it!A7,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='817f27e1-4ec8-11e8-8991-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F8,"' WHERE fk_glacier='",fr!A8,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F8,"' WHERE fk_glacier='",it!A8,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7fbb09b0-4ec8-11e8-a935-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F9,"' WHERE fk_glacier='",fr!A9,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F9,"' WHERE fk_glacier='",it!A9,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='812f0c0f-4ec8-11e8-a2fd-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F10,"' WHERE fk_glacier='",fr!A10,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F10,"' WHERE fk_glacier='",it!A10,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7fd45e0f-4ec8-11e8-b1d3-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F11,"' WHERE fk_glacier='",fr!A11,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F11,"' WHERE fk_glacier='",it!A11,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7ffa0e80-4ec8-11e8-b2b2-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F12,"' WHERE fk_glacier='",fr!A12,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F12,"' WHERE fk_glacier='",it!A12,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7fbf014f-4ec8-11e8-83a2-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F13,"' WHERE fk_glacier='",fr!A13,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F13,"' WHERE fk_glacier='",it!A13,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='815cabc0-4ec8-11e8-b3b0-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F14,"' WHERE fk_glacier='",fr!A14,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F14,"' WHERE fk_glacier='",it!A14,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='80e97791-4ec8-11e8-97b4-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F15,"' WHERE fk_glacier='",fr!A15,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F15,"' WHERE fk_glacier='",it!A15,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='801e8670-4ec8-11e8-9ca9-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F16,"' WHERE fk_glacier='",fr!A16,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
-        <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='81722f8f-4ec8-11e8-8842-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F17,"' WHERE fk_glacier='",fr!A17,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F16,"' WHERE fk_glacier='",it!A16,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+        <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='8176754f-4ec8-11e8-9a29-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F17,"' WHERE fk_glacier='",it!A17,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='80f425f0-4ec8-11e8-81a5-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F18,"' WHERE fk_glacier='",fr!A18,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F18,"' WHERE fk_glacier='",it!A18,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='805303f0-4ec8-11e8-b416-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F19,"' WHERE fk_glacier='",fr!A19,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F19,"' WHERE fk_glacier='",it!A19,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='804dd3cf-4ec8-11e8-a72a-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F20,"' WHERE fk_glacier='",fr!A20,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F20,"' WHERE fk_glacier='",it!A20,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='8005ce4f-4ec8-11e8-8fd1-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F21,"' WHERE fk_glacier='",fr!A21,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F21,"' WHERE fk_glacier='",it!A21,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7ff7c48f-4ec8-11e8-9cfb-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F22,"' WHERE fk_glacier='",fr!A22,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F22,"' WHERE fk_glacier='",it!A22,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='808b2af0-4ec8-11e8-8ac4-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F23,"' WHERE fk_glacier='",fr!A23,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F23,"' WHERE fk_glacier='",it!A23,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='800b9aae-4ec8-11e8-a4bc-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F24,"' WHERE fk_glacier='",fr!A24,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F24,"' WHERE fk_glacier='",it!A24,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='8102cbf0-4ec8-11e8-84bd-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F25,"' WHERE fk_glacier='",fr!A25,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F25,"' WHERE fk_glacier='",it!A25,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='8106ea9e-4ec8-11e8-b42d-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F26,"' WHERE fk_glacier='",fr!A26,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F26,"' WHERE fk_glacier='",it!A26,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7fb00d30-4ec8-11e8-aa2a-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F27,"' WHERE fk_glacier='",fr!A27,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F27,"' WHERE fk_glacier='",it!A27,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7fa7338f-4ec8-11e8-ac48-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F28,"' WHERE fk_glacier='",fr!A28,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F28,"' WHERE fk_glacier='",it!A28,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f43dde1-4ec8-11e8-9cdc-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F29,"' WHERE fk_glacier='",fr!A29,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F29,"' WHERE fk_glacier='",it!A29,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7fe240c0-4ec8-11e8-85fa-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F30,"' WHERE fk_glacier='",fr!A30,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F30,"' WHERE fk_glacier='",it!A30,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='80905b0f-4ec8-11e8-8e80-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F31,"' WHERE fk_glacier='",fr!A31,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
-        <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='810ae240-4ec8-11e8-9773-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F32,"' WHERE fk_glacier='",fr!A32,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F31,"' WHERE fk_glacier='",it!A31,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+        <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='81103970-4ec8-11e8-8d3b-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F32,"' WHERE fk_glacier='",it!A32,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='810d051e-4ec8-11e8-8e0f-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F33,"' WHERE fk_glacier='",fr!A33,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F33,"' WHERE fk_glacier='",it!A33,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='80e299c0-4ec8-11e8-b5fe-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F34,"' WHERE fk_glacier='",fr!A34,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F34,"' WHERE fk_glacier='",it!A34,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='81215070-4ec8-11e8-9ffe-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F35,"' WHERE fk_glacier='",fr!A35,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F35,"' WHERE fk_glacier='",it!A35,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='8151fd61-4ec8-11e8-a496-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F36,"' WHERE fk_glacier='",fr!A36,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F36,"' WHERE fk_glacier='",it!A36,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f2c854f-4ec8-11e8-8cbf-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F37,"' WHERE fk_glacier='",fr!A37,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F37,"' WHERE fk_glacier='",it!A37,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f60b4b0-4ec8-11e8-8af5-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F38,"' WHERE fk_glacier='",fr!A38,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F38,"' WHERE fk_glacier='",it!A38,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f35fb30-4ec8-11e8-bc7b-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F39,"' WHERE fk_glacier='",fr!A39,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F39,"' WHERE fk_glacier='",it!A39,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f8071b0-4ec8-11e8-8a31-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F40,"' WHERE fk_glacier='",fr!A40,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F40,"' WHERE fk_glacier='",it!A40,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f1505b0-4ec8-11e8-b2f8-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F41,"' WHERE fk_glacier='",fr!A41,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F41,"' WHERE fk_glacier='",it!A41,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f6f33a1-4ec8-11e8-88b8-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F42,"' WHERE fk_glacier='",fr!A42,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F42,"' WHERE fk_glacier='",it!A42,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f41bb00-4ec8-11e8-9f2a-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F43,"' WHERE fk_glacier='",fr!A43,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F43,"' WHERE fk_glacier='",it!A43,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f5ac140-4ec8-11e8-b0cb-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F44,"' WHERE fk_glacier='",fr!A44,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F44,"' WHERE fk_glacier='",it!A44,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f8fdb00-4ec8-11e8-8487-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F45,"' WHERE fk_glacier='",fr!A45,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F45,"' WHERE fk_glacier='",it!A45,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7faa8ef0-4ec8-11e8-946d-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F46,"' WHERE fk_glacier='",fr!A46,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F46,"' WHERE fk_glacier='",it!A46,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f202940-4ec8-11e8-bf4b-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F47,"' WHERE fk_glacier='",fr!A47,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F47,"' WHERE fk_glacier='",it!A47,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f22250f-4ec8-11e8-a3d4-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F48,"' WHERE fk_glacier='",fr!A48,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F48,"' WHERE fk_glacier='",it!A48,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f13a61e-4ec8-11e8-abe9-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F49,"' WHERE fk_glacier='",fr!A49,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F49,"' WHERE fk_glacier='",it!A49,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f38ba4f-4ec8-11e8-b47f-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F50,"' WHERE fk_glacier='",fr!A50,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F50,"' WHERE fk_glacier='",it!A50,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f2afeb0-4ec8-11e8-acf4-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F51,"' WHERE fk_glacier='",fr!A51,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F51,"' WHERE fk_glacier='",it!A51,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f68f20f-4ec8-11e8-be8f-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F52,"' WHERE fk_glacier='",fr!A52,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F52,"' WHERE fk_glacier='",it!A52,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f2bc200-4ec8-11e8-b266-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F53,"' WHERE fk_glacier='",fr!A53,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F53,"' WHERE fk_glacier='",it!A53,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f277c40-4ec8-11e8-80f0-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F54,"' WHERE fk_glacier='",fr!A54,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F54,"' WHERE fk_glacier='",it!A54,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f9cd34f-4ec8-11e8-b0d8-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F55,"' WHERE fk_glacier='",fr!A55,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F55,"' WHERE fk_glacier='",it!A55,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f1ccde1-4ec8-11e8-a759-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F56,"' WHERE fk_glacier='",fr!A56,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F56,"' WHERE fk_glacier='",it!A56,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f1071cf-4ec8-11e8-acf5-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F57,"' WHERE fk_glacier='",fr!A57,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F57,"' WHERE fk_glacier='",it!A57,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f698e51-4ec8-11e8-877b-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F58,"' WHERE fk_glacier='",fr!A58,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F58,"' WHERE fk_glacier='",it!A58,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f601870-4ec8-11e8-9a20-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F59,"' WHERE fk_glacier='",fr!A59,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F59,"' WHERE fk_glacier='",it!A59,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f5bd2ae-4ec8-11e8-b55b-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F60,"' WHERE fk_glacier='",fr!A60,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F60,"' WHERE fk_glacier='",it!A60,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f469d00-4ec8-11e8-91d0-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F61,"' WHERE fk_glacier='",fr!A61,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F61,"' WHERE fk_glacier='",it!A61,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f6dad00-4ec8-11e8-bc45-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F62,"' WHERE fk_glacier='",fr!A62,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F62,"' WHERE fk_glacier='",it!A62,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f3b2b4f-4ec8-11e8-9f82-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F63,"' WHERE fk_glacier='",fr!A63,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F63,"' WHERE fk_glacier='",it!A63,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f7acc61-4ec8-11e8-8917-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F64,"' WHERE fk_glacier='",fr!A64,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F64,"' WHERE fk_glacier='",it!A64,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f2643c0-4ec8-11e8-90b9-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F65,"' WHERE fk_glacier='",fr!A65,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F65,"' WHERE fk_glacier='",it!A65,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f26e000-4ec8-11e8-9cd0-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F66,"' WHERE fk_glacier='",fr!A66,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F66,"' WHERE fk_glacier='",it!A66,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f0eeb30-4ec8-11e8-aab0-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F67,"' WHERE fk_glacier='",fr!A67,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F67,"' WHERE fk_glacier='",it!A67,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7fb38f9e-4ec8-11e8-a33d-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F68,"' WHERE fk_glacier='",fr!A68,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F68,"' WHERE fk_glacier='",it!A68,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='8192139e-4ec8-11e8-a683-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F69,"' WHERE fk_glacier='",fr!A69,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F69,"' WHERE fk_glacier='",it!A69,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='81801240-4ec8-11e8-96fa-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F70,"' WHERE fk_glacier='",fr!A70,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F70,"' WHERE fk_glacier='",it!A70,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='8177fbee-4ec8-11e8-bf58-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F71,"' WHERE fk_glacier='",fr!A71,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F71,"' WHERE fk_glacier='",it!A71,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='8186c900-4ec8-11e8-934a-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F72,"' WHERE fk_glacier='",fr!A72,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F72,"' WHERE fk_glacier='",it!A72,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='81b8875e-4ec8-11e8-a699-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F73,"' WHERE fk_glacier='",fr!A73,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F73,"' WHERE fk_glacier='",it!A73,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='812e6fcf-4ec8-11e8-bdf6-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F74,"' WHERE fk_glacier='",fr!A74,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F74,"' WHERE fk_glacier='",it!A74,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7fdce98f-4ec8-11e8-9185-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F75,"' WHERE fk_glacier='",fr!A75,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F75,"' WHERE fk_glacier='",it!A75,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='80cc2b8f-4ec8-11e8-9ef4-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F76,"' WHERE fk_glacier='",fr!A76,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F76,"' WHERE fk_glacier='",it!A76,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='81151b6e-4ec8-11e8-ab43-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F77,"' WHERE fk_glacier='",fr!A77,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F77,"' WHERE fk_glacier='",it!A77,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='81151b6e-4ec8-11e8-ab43-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F78,"' WHERE fk_glacier='",fr!A78,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F78,"' WHERE fk_glacier='",it!A78,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='805d642e-4ec8-11e8-b774-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F79,"' WHERE fk_glacier='",fr!A79,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F79,"' WHERE fk_glacier='",it!A79,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='804177c0-4ec8-11e8-8849-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F80,"' WHERE fk_glacier='",fr!A80,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F80,"' WHERE fk_glacier='",it!A80,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f72b60f-4ec8-11e8-ad81-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F81,"' WHERE fk_glacier='",fr!A81,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F81,"' WHERE fk_glacier='",it!A81,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='8082ed8f-4ec8-11e8-ae59-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F82,"' WHERE fk_glacier='",fr!A82,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F82,"' WHERE fk_glacier='",it!A82,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='81a0928f-4ec8-11e8-bb21-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F83,"' WHERE fk_glacier='",fr!A83,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F83,"' WHERE fk_glacier='",it!A83,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='80077c00-4ec8-11e8-a5bc-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F84,"' WHERE fk_glacier='",fr!A84,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F84,"' WHERE fk_glacier='",it!A84,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7ff21f40-4ec8-11e8-8062-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F85,"' WHERE fk_glacier='",fr!A85,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F85,"' WHERE fk_glacier='",it!A85,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='8016972e-4ec8-11e8-853b-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F86,"' WHERE fk_glacier='",fr!A86,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F86,"' WHERE fk_glacier='",it!A86,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7fb31a70-4ec8-11e8-8d99-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F87,"' WHERE fk_glacier='",fr!A87,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F87,"' WHERE fk_glacier='",it!A87,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f9d4880-4ec8-11e8-a523-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F88,"' WHERE fk_glacier='",fr!A88,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F88,"' WHERE fk_glacier='",it!A88,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='8170a8f0-4ec8-11e8-90ba-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F89,"' WHERE fk_glacier='",fr!A89,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F89,"' WHERE fk_glacier='",it!A89,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='8071d68f-4ec8-11e8-9aa4-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F90,"' WHERE fk_glacier='",fr!A90,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F90,"' WHERE fk_glacier='",it!A90,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f7e4ecf-4ec8-11e8-a772-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F91,"' WHERE fk_glacier='",fr!A91,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F91,"' WHERE fk_glacier='",it!A91,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='802711f0-4ec8-11e8-9b4c-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F92,"' WHERE fk_glacier='",fr!A92,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F92,"' WHERE fk_glacier='",it!A92,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='819dfa80-4ec8-11e8-afaa-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F93,"' WHERE fk_glacier='",fr!A93,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F93,"' WHERE fk_glacier='",it!A93,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='818dcde1-4ec8-11e8-8edf-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F94,"' WHERE fk_glacier='",fr!A94,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F94,"' WHERE fk_glacier='",it!A94,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='8002c10f-4ec8-11e8-a586-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F95,"' WHERE fk_glacier='",fr!A95,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F95,"' WHERE fk_glacier='",it!A95,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='80a78c8f-4ec8-11e8-bc82-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F96,"' WHERE fk_glacier='",fr!A96,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F96,"' WHERE fk_glacier='",it!A96,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='8058d04f-4ec8-11e8-89da-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F97,"' WHERE fk_glacier='",fr!A97,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F97,"' WHERE fk_glacier='",it!A97,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='80ef6b00-4ec8-11e8-9d50-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F98,"' WHERE fk_glacier='",fr!A98,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F98,"' WHERE fk_glacier='",it!A98,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='80a14b00-4ec8-11e8-ade9-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F99,"' WHERE fk_glacier='",fr!A99,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F99,"' WHERE fk_glacier='",it!A99,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='803d8021-4ec8-11e8-9eaa-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F100,"' WHERE fk_glacier='",fr!A100,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F100,"' WHERE fk_glacier='",it!A100,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='8085acb0-4ec8-11e8-802e-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F101,"' WHERE fk_glacier='",fr!A101,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F101,"' WHERE fk_glacier='",it!A101,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7fb7120f-4ec8-11e8-be72-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F102,"' WHERE fk_glacier='",fr!A102,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F102,"' WHERE fk_glacier='",it!A102,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='804e4900-4ec8-11e8-938f-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F103,"' WHERE fk_glacier='",fr!A103,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F103,"' WHERE fk_glacier='",it!A103,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='81a65ef0-4ec8-11e8-b44e-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F104,"' WHERE fk_glacier='",fr!A104,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F104,"' WHERE fk_glacier='",it!A104,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='81c383e1-4ec8-11e8-96ba-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F105,"' WHERE fk_glacier='",fr!A105,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F105,"' WHERE fk_glacier='",it!A105,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f1f8d00-4ec8-11e8-9ac4-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F106,"' WHERE fk_glacier='",fr!A106,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F106,"' WHERE fk_glacier='",it!A106,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='81908d00-4ec8-11e8-8006-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F107,"' WHERE fk_glacier='",fr!A107,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F107,"' WHERE fk_glacier='",it!A107,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='80e4bc9e-4ec8-11e8-a0f7-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F108,"' WHERE fk_glacier='",fr!A108,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F108,"' WHERE fk_glacier='",it!A108,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7ffca691-4ec8-11e8-a8b6-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F109,"' WHERE fk_glacier='",fr!A109,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F109,"' WHERE fk_glacier='",it!A109,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='808bee40-4ec8-11e8-ad08-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F110,"' WHERE fk_glacier='",fr!A110,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F110,"' WHERE fk_glacier='",it!A110,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='805267b0-4ec8-11e8-b67c-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F111,"' WHERE fk_glacier='",fr!A111,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F111,"' WHERE fk_glacier='",it!A111,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='80ee598f-4ec8-11e8-8b7a-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F112,"' WHERE fk_glacier='",fr!A112,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F112,"' WHERE fk_glacier='",it!A112,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='8035df00-4ec8-11e8-b025-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F113,"' WHERE fk_glacier='",fr!A113,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F113,"' WHERE fk_glacier='",it!A113,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='813e9c70-4ec8-11e8-bda0-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F114,"' WHERE fk_glacier='",fr!A114,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F114,"' WHERE fk_glacier='",it!A114,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='81b9bfde-4ec8-11e8-92e2-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F115,"' WHERE fk_glacier='",fr!A115,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F115,"' WHERE fk_glacier='",it!A115,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='8201c561-4ec8-11e8-98b0-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F116,"' WHERE fk_glacier='",fr!A116,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F116,"' WHERE fk_glacier='",it!A116,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='80200d0f-4ec8-11e8-84c6-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F117,"' WHERE fk_glacier='",fr!A117,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F117,"' WHERE fk_glacier='",it!A117,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7fa1b551-4ec8-11e8-a87e-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F118,"' WHERE fk_glacier='",fr!A118,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F118,"' WHERE fk_glacier='",it!A118,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='8033e330-4ec8-11e8-a89b-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F119,"' WHERE fk_glacier='",fr!A119,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F119,"' WHERE fk_glacier='",it!A119,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='821610ae-4ec8-11e8-a4cf-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F120,"' WHERE fk_glacier='",fr!A120,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F120,"' WHERE fk_glacier='",it!A120,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='80f6be00-4ec8-11e8-85b0-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F121,"' WHERE fk_glacier='",fr!A121,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F121,"' WHERE fk_glacier='",it!A121,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='81c24b5e-4ec8-11e8-aa36-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A122" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F122,"' WHERE fk_glacier='",fr!A122,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F122,"' WHERE fk_glacier='",it!A122,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7fe6385e-4ec8-11e8-8171-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F123,"' WHERE fk_glacier='",fr!A123,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F123,"' WHERE fk_glacier='",it!A123,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='80f20311-4ec8-11e8-9260-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A124" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F124,"' WHERE fk_glacier='",fr!A124,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F124,"' WHERE fk_glacier='",it!A124,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='807ad740-4ec8-11e8-8f59-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A125" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F125,"' WHERE fk_glacier='",fr!A125,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F125,"' WHERE fk_glacier='",it!A125,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='80dc0a0f-4ec8-11e8-99e8-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A126" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F126,"' WHERE fk_glacier='",fr!A126,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F126,"' WHERE fk_glacier='",it!A126,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='80515640-4ec8-11e8-b4ef-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F127,"' WHERE fk_glacier='",fr!A127,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F127,"' WHERE fk_glacier='",it!A127,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7fadc340-4ec8-11e8-bb58-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F128,"' WHERE fk_glacier='",fr!A128,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F128,"' WHERE fk_glacier='",it!A128,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7fea570f-4ec8-11e8-94b8-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F129,"' WHERE fk_glacier='",fr!A129,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F129,"' WHERE fk_glacier='",it!A129,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f580221-4ec8-11e8-8098-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F130,"' WHERE fk_glacier='",fr!A130,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F130,"' WHERE fk_glacier='",it!A130,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7fb4a10f-4ec8-11e8-8ed2-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F131,"' WHERE fk_glacier='",fr!A131,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F131,"' WHERE fk_glacier='",it!A131,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='80a394ee-4ec8-11e8-984c-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F132,"' WHERE fk_glacier='",fr!A132,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F132,"' WHERE fk_glacier='",it!A132,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='80644200-4ec8-11e8-aa15-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F133,"' WHERE fk_glacier='",fr!A133,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F133,"' WHERE fk_glacier='",it!A133,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='80013a70-4ec8-11e8-9d58-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F134,"' WHERE fk_glacier='",fr!A134,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F134,"' WHERE fk_glacier='",it!A134,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='81e71170-4ec8-11e8-a1a7-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F135,"' WHERE fk_glacier='",fr!A135,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F135,"' WHERE fk_glacier='",it!A135,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='81d229de-4ec8-11e8-91db-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F136,"' WHERE fk_glacier='",fr!A136,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F136,"' WHERE fk_glacier='",it!A136,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='81d8445e-4ec8-11e8-9ffa-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F137,"' WHERE fk_glacier='",fr!A137,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F137,"' WHERE fk_glacier='",it!A137,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='819d5e40-4ec8-11e8-ab3d-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F138,"' WHERE fk_glacier='",fr!A138,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F138,"' WHERE fk_glacier='",it!A138,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='81db2a8f-4ec8-11e8-b718-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F139,"' WHERE fk_glacier='",fr!A139,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F139,"' WHERE fk_glacier='",it!A139,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='82230900-4ec8-11e8-a7f2-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F140,"' WHERE fk_glacier='",fr!A140,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F140,"' WHERE fk_glacier='",it!A140,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='81fdcdc0-4ec8-11e8-a3b5-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F141,"' WHERE fk_glacier='",fr!A141,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F141,"' WHERE fk_glacier='",it!A141,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='8206804f-4ec8-11e8-8aeb-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F142,"' WHERE fk_glacier='",fr!A142,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F142,"' WHERE fk_glacier='",it!A142,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='81f51b30-4ec8-11e8-b578-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F143,"' WHERE fk_glacier='",fr!A143,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F143,"' WHERE fk_glacier='",it!A143,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='81f1bfcf-4ec8-11e8-84aa-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F144,"' WHERE fk_glacier='",fr!A144,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F144,"' WHERE fk_glacier='",it!A144,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='8220e621-4ec8-11e8-a1de-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F145,"' WHERE fk_glacier='",fr!A145,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F145,"' WHERE fk_glacier='",it!A145,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='81f430cf-4ec8-11e8-8fd6-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F146,"' WHERE fk_glacier='",fr!A146,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F146,"' WHERE fk_glacier='",it!A146,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='82098d8f-4ec8-11e8-936e-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F147,"' WHERE fk_glacier='",fr!A147,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
-        <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='81e98270-4ec8-11e8-86b3-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F148,"' WHERE fk_glacier='",fr!A148,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F147,"' WHERE fk_glacier='",it!A147,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+        <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='81ed04e1-4ec8-11e8-a1f7-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F148,"' WHERE fk_glacier='",it!A148,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='81ec1a80-4ec8-11e8-8d89-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A149" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F149,"' WHERE fk_glacier='",fr!A149,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F149,"' WHERE fk_glacier='",it!A149,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='82172221-4ec8-11e8-aa3c-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A150" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F150,"' WHERE fk_glacier='",fr!A150,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F150,"' WHERE fk_glacier='",it!A150,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='82196c0f-4ec8-11e8-b379-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F151,"' WHERE fk_glacier='",fr!A151,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F151,"' WHERE fk_glacier='",it!A151,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='8214b121-4ec8-11e8-b161-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A152" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F152,"' WHERE fk_glacier='",fr!A152,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F152,"' WHERE fk_glacier='",it!A152,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='810786de-4ec8-11e8-bd45-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A153" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F153,"' WHERE fk_glacier='",fr!A153,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F153,"' WHERE fk_glacier='",it!A153,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='805c79d1-4ec8-11e8-8b15-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A154" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F154,"' WHERE fk_glacier='",fr!A154,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F154,"' WHERE fk_glacier='",it!A154,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f78344f-4ec8-11e8-858b-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A155" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", fr!F155,"' WHERE fk_glacier='",fr!A155,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="str">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description ='", it!F155,"' WHERE fk_glacier='",it!A155,"' AND fk_language_type='fr' AND fk_glacier_description_type ='0'")</f>
         <v>UPDATE base_data.glacier_description SET description ='' WHERE fk_glacier='7f9a3b40-4ec8-11e8-9c5e-985fd331b2ee' AND fk_language_type='fr' AND fk_glacier_description_type ='0'</v>
       </c>
     </row>
@@ -4673,935 +4695,935 @@
       <selection sqref="A1:A155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F1,"$ WHERE fk_glacier=$",fr!A1,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F1,"$ WHERE fk_glacier=$",it!A1,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$description$ WHERE fk_glacier=$pk_glacier$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F2,"$ WHERE fk_glacier=$",fr!A2,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F2,"$ WHERE fk_glacier=$",it!A2,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$8013ff1e-4ec8-11e8-b760-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F3,"$ WHERE fk_glacier=$",fr!A3,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F3,"$ WHERE fk_glacier=$",it!A3,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7fdf0c70-4ec8-11e8-a467-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F4,"$ WHERE fk_glacier=$",fr!A4,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F4,"$ WHERE fk_glacier=$",it!A4,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$807272cf-4ec8-11e8-8bfd-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F5,"$ WHERE fk_glacier=$",fr!A5,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F5,"$ WHERE fk_glacier=$",it!A5,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f7a3021-4ec8-11e8-8281-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F6,"$ WHERE fk_glacier=$",fr!A6,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F6,"$ WHERE fk_glacier=$",it!A6,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f9f6b61-4ec8-11e8-adbe-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F7,"$ WHERE fk_glacier=$",fr!A7,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F7,"$ WHERE fk_glacier=$",it!A7,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$817f27e1-4ec8-11e8-8991-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F8,"$ WHERE fk_glacier=$",fr!A8,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F8,"$ WHERE fk_glacier=$",it!A8,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7fbb09b0-4ec8-11e8-a935-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F9,"$ WHERE fk_glacier=$",fr!A9,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F9,"$ WHERE fk_glacier=$",it!A9,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$812f0c0f-4ec8-11e8-a2fd-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F10,"$ WHERE fk_glacier=$",fr!A10,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F10,"$ WHERE fk_glacier=$",it!A10,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7fd45e0f-4ec8-11e8-b1d3-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F11,"$ WHERE fk_glacier=$",fr!A11,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F11,"$ WHERE fk_glacier=$",it!A11,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7ffa0e80-4ec8-11e8-b2b2-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F12,"$ WHERE fk_glacier=$",fr!A12,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F12,"$ WHERE fk_glacier=$",it!A12,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7fbf014f-4ec8-11e8-83a2-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F13,"$ WHERE fk_glacier=$",fr!A13,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F13,"$ WHERE fk_glacier=$",it!A13,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$815cabc0-4ec8-11e8-b3b0-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F14,"$ WHERE fk_glacier=$",fr!A14,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F14,"$ WHERE fk_glacier=$",it!A14,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$80e97791-4ec8-11e8-97b4-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F15,"$ WHERE fk_glacier=$",fr!A15,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F15,"$ WHERE fk_glacier=$",it!A15,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$801e8670-4ec8-11e8-9ca9-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F16,"$ WHERE fk_glacier=$",fr!A16,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
-        <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$81722f8f-4ec8-11e8-8842-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F16,"$ WHERE fk_glacier=$",it!A16,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$8176754f-4ec8-11e8-9a29-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F17,"$ WHERE fk_glacier=$",fr!A17,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F17,"$ WHERE fk_glacier=$",it!A17,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$80f425f0-4ec8-11e8-81a5-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F18,"$ WHERE fk_glacier=$",fr!A18,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F18,"$ WHERE fk_glacier=$",it!A18,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$805303f0-4ec8-11e8-b416-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F19,"$ WHERE fk_glacier=$",fr!A19,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F19,"$ WHERE fk_glacier=$",it!A19,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$804dd3cf-4ec8-11e8-a72a-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F20,"$ WHERE fk_glacier=$",fr!A20,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F20,"$ WHERE fk_glacier=$",it!A20,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$8005ce4f-4ec8-11e8-8fd1-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F21,"$ WHERE fk_glacier=$",fr!A21,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F21,"$ WHERE fk_glacier=$",it!A21,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7ff7c48f-4ec8-11e8-9cfb-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F22,"$ WHERE fk_glacier=$",fr!A22,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F22,"$ WHERE fk_glacier=$",it!A22,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$808b2af0-4ec8-11e8-8ac4-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F23,"$ WHERE fk_glacier=$",fr!A23,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F23,"$ WHERE fk_glacier=$",it!A23,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$800b9aae-4ec8-11e8-a4bc-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F24,"$ WHERE fk_glacier=$",fr!A24,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F24,"$ WHERE fk_glacier=$",it!A24,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$8102cbf0-4ec8-11e8-84bd-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F25,"$ WHERE fk_glacier=$",fr!A25,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F25,"$ WHERE fk_glacier=$",it!A25,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$8106ea9e-4ec8-11e8-b42d-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F26,"$ WHERE fk_glacier=$",fr!A26,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F26,"$ WHERE fk_glacier=$",it!A26,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7fb00d30-4ec8-11e8-aa2a-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F27,"$ WHERE fk_glacier=$",fr!A27,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F27,"$ WHERE fk_glacier=$",it!A27,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7fa7338f-4ec8-11e8-ac48-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F28,"$ WHERE fk_glacier=$",fr!A28,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F28,"$ WHERE fk_glacier=$",it!A28,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f43dde1-4ec8-11e8-9cdc-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F29,"$ WHERE fk_glacier=$",fr!A29,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F29,"$ WHERE fk_glacier=$",it!A29,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7fe240c0-4ec8-11e8-85fa-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F30,"$ WHERE fk_glacier=$",fr!A30,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F30,"$ WHERE fk_glacier=$",it!A30,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$80905b0f-4ec8-11e8-8e80-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F31,"$ WHERE fk_glacier=$",fr!A31,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
-        <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$810ae240-4ec8-11e8-9773-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F31,"$ WHERE fk_glacier=$",it!A31,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$81103970-4ec8-11e8-8d3b-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F32,"$ WHERE fk_glacier=$",fr!A32,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F32,"$ WHERE fk_glacier=$",it!A32,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$810d051e-4ec8-11e8-8e0f-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F33,"$ WHERE fk_glacier=$",fr!A33,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F33,"$ WHERE fk_glacier=$",it!A33,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$80e299c0-4ec8-11e8-b5fe-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F34,"$ WHERE fk_glacier=$",fr!A34,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F34,"$ WHERE fk_glacier=$",it!A34,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$81215070-4ec8-11e8-9ffe-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F35,"$ WHERE fk_glacier=$",fr!A35,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F35,"$ WHERE fk_glacier=$",it!A35,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$8151fd61-4ec8-11e8-a496-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F36,"$ WHERE fk_glacier=$",fr!A36,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F36,"$ WHERE fk_glacier=$",it!A36,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f2c854f-4ec8-11e8-8cbf-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F37,"$ WHERE fk_glacier=$",fr!A37,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F37,"$ WHERE fk_glacier=$",it!A37,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f60b4b0-4ec8-11e8-8af5-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F38,"$ WHERE fk_glacier=$",fr!A38,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F38,"$ WHERE fk_glacier=$",it!A38,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f35fb30-4ec8-11e8-bc7b-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F39,"$ WHERE fk_glacier=$",fr!A39,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F39,"$ WHERE fk_glacier=$",it!A39,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f8071b0-4ec8-11e8-8a31-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F40,"$ WHERE fk_glacier=$",fr!A40,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F40,"$ WHERE fk_glacier=$",it!A40,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f1505b0-4ec8-11e8-b2f8-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F41,"$ WHERE fk_glacier=$",fr!A41,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F41,"$ WHERE fk_glacier=$",it!A41,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f6f33a1-4ec8-11e8-88b8-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F42,"$ WHERE fk_glacier=$",fr!A42,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F42,"$ WHERE fk_glacier=$",it!A42,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f41bb00-4ec8-11e8-9f2a-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F43,"$ WHERE fk_glacier=$",fr!A43,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F43,"$ WHERE fk_glacier=$",it!A43,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f5ac140-4ec8-11e8-b0cb-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F44,"$ WHERE fk_glacier=$",fr!A44,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F44,"$ WHERE fk_glacier=$",it!A44,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f8fdb00-4ec8-11e8-8487-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F45,"$ WHERE fk_glacier=$",fr!A45,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F45,"$ WHERE fk_glacier=$",it!A45,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7faa8ef0-4ec8-11e8-946d-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F46,"$ WHERE fk_glacier=$",fr!A46,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F46,"$ WHERE fk_glacier=$",it!A46,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f202940-4ec8-11e8-bf4b-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F47,"$ WHERE fk_glacier=$",fr!A47,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F47,"$ WHERE fk_glacier=$",it!A47,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f22250f-4ec8-11e8-a3d4-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F48,"$ WHERE fk_glacier=$",fr!A48,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F48,"$ WHERE fk_glacier=$",it!A48,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f13a61e-4ec8-11e8-abe9-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F49,"$ WHERE fk_glacier=$",fr!A49,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F49,"$ WHERE fk_glacier=$",it!A49,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f38ba4f-4ec8-11e8-b47f-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F50,"$ WHERE fk_glacier=$",fr!A50,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F50,"$ WHERE fk_glacier=$",it!A50,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f2afeb0-4ec8-11e8-acf4-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F51,"$ WHERE fk_glacier=$",fr!A51,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F51,"$ WHERE fk_glacier=$",it!A51,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f68f20f-4ec8-11e8-be8f-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F52,"$ WHERE fk_glacier=$",fr!A52,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F52,"$ WHERE fk_glacier=$",it!A52,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f2bc200-4ec8-11e8-b266-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F53,"$ WHERE fk_glacier=$",fr!A53,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F53,"$ WHERE fk_glacier=$",it!A53,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f277c40-4ec8-11e8-80f0-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F54,"$ WHERE fk_glacier=$",fr!A54,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F54,"$ WHERE fk_glacier=$",it!A54,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f9cd34f-4ec8-11e8-b0d8-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F55,"$ WHERE fk_glacier=$",fr!A55,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F55,"$ WHERE fk_glacier=$",it!A55,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f1ccde1-4ec8-11e8-a759-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F56,"$ WHERE fk_glacier=$",fr!A56,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F56,"$ WHERE fk_glacier=$",it!A56,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f1071cf-4ec8-11e8-acf5-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F57,"$ WHERE fk_glacier=$",fr!A57,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F57,"$ WHERE fk_glacier=$",it!A57,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f698e51-4ec8-11e8-877b-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F58,"$ WHERE fk_glacier=$",fr!A58,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F58,"$ WHERE fk_glacier=$",it!A58,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f601870-4ec8-11e8-9a20-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F59,"$ WHERE fk_glacier=$",fr!A59,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F59,"$ WHERE fk_glacier=$",it!A59,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f5bd2ae-4ec8-11e8-b55b-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F60,"$ WHERE fk_glacier=$",fr!A60,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F60,"$ WHERE fk_glacier=$",it!A60,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f469d00-4ec8-11e8-91d0-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F61,"$ WHERE fk_glacier=$",fr!A61,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F61,"$ WHERE fk_glacier=$",it!A61,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f6dad00-4ec8-11e8-bc45-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F62,"$ WHERE fk_glacier=$",fr!A62,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F62,"$ WHERE fk_glacier=$",it!A62,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f3b2b4f-4ec8-11e8-9f82-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F63,"$ WHERE fk_glacier=$",fr!A63,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F63,"$ WHERE fk_glacier=$",it!A63,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f7acc61-4ec8-11e8-8917-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F64,"$ WHERE fk_glacier=$",fr!A64,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F64,"$ WHERE fk_glacier=$",it!A64,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f2643c0-4ec8-11e8-90b9-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F65,"$ WHERE fk_glacier=$",fr!A65,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F65,"$ WHERE fk_glacier=$",it!A65,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f26e000-4ec8-11e8-9cd0-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F66,"$ WHERE fk_glacier=$",fr!A66,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F66,"$ WHERE fk_glacier=$",it!A66,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f0eeb30-4ec8-11e8-aab0-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F67,"$ WHERE fk_glacier=$",fr!A67,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F67,"$ WHERE fk_glacier=$",it!A67,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7fb38f9e-4ec8-11e8-a33d-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F68,"$ WHERE fk_glacier=$",fr!A68,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F68,"$ WHERE fk_glacier=$",it!A68,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$8192139e-4ec8-11e8-a683-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F69,"$ WHERE fk_glacier=$",fr!A69,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F69,"$ WHERE fk_glacier=$",it!A69,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$81801240-4ec8-11e8-96fa-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F70,"$ WHERE fk_glacier=$",fr!A70,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F70,"$ WHERE fk_glacier=$",it!A70,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$8177fbee-4ec8-11e8-bf58-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F71,"$ WHERE fk_glacier=$",fr!A71,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F71,"$ WHERE fk_glacier=$",it!A71,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$8186c900-4ec8-11e8-934a-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F72,"$ WHERE fk_glacier=$",fr!A72,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F72,"$ WHERE fk_glacier=$",it!A72,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$81b8875e-4ec8-11e8-a699-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F73,"$ WHERE fk_glacier=$",fr!A73,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F73,"$ WHERE fk_glacier=$",it!A73,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$812e6fcf-4ec8-11e8-bdf6-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F74,"$ WHERE fk_glacier=$",fr!A74,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F74,"$ WHERE fk_glacier=$",it!A74,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7fdce98f-4ec8-11e8-9185-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F75,"$ WHERE fk_glacier=$",fr!A75,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F75,"$ WHERE fk_glacier=$",it!A75,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$80cc2b8f-4ec8-11e8-9ef4-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F76,"$ WHERE fk_glacier=$",fr!A76,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F76,"$ WHERE fk_glacier=$",it!A76,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$81151b6e-4ec8-11e8-ab43-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F77,"$ WHERE fk_glacier=$",fr!A77,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F77,"$ WHERE fk_glacier=$",it!A77,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$81151b6e-4ec8-11e8-ab43-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F78,"$ WHERE fk_glacier=$",fr!A78,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F78,"$ WHERE fk_glacier=$",it!A78,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$805d642e-4ec8-11e8-b774-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F79,"$ WHERE fk_glacier=$",fr!A79,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F79,"$ WHERE fk_glacier=$",it!A79,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$804177c0-4ec8-11e8-8849-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F80,"$ WHERE fk_glacier=$",fr!A80,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F80,"$ WHERE fk_glacier=$",it!A80,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f72b60f-4ec8-11e8-ad81-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F81,"$ WHERE fk_glacier=$",fr!A81,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F81,"$ WHERE fk_glacier=$",it!A81,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$8082ed8f-4ec8-11e8-ae59-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F82,"$ WHERE fk_glacier=$",fr!A82,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F82,"$ WHERE fk_glacier=$",it!A82,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$81a0928f-4ec8-11e8-bb21-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F83,"$ WHERE fk_glacier=$",fr!A83,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F83,"$ WHERE fk_glacier=$",it!A83,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$80077c00-4ec8-11e8-a5bc-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F84,"$ WHERE fk_glacier=$",fr!A84,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F84,"$ WHERE fk_glacier=$",it!A84,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7ff21f40-4ec8-11e8-8062-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F85,"$ WHERE fk_glacier=$",fr!A85,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F85,"$ WHERE fk_glacier=$",it!A85,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$8016972e-4ec8-11e8-853b-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F86,"$ WHERE fk_glacier=$",fr!A86,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F86,"$ WHERE fk_glacier=$",it!A86,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7fb31a70-4ec8-11e8-8d99-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F87,"$ WHERE fk_glacier=$",fr!A87,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F87,"$ WHERE fk_glacier=$",it!A87,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f9d4880-4ec8-11e8-a523-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F88,"$ WHERE fk_glacier=$",fr!A88,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F88,"$ WHERE fk_glacier=$",it!A88,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$8170a8f0-4ec8-11e8-90ba-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F89,"$ WHERE fk_glacier=$",fr!A89,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F89,"$ WHERE fk_glacier=$",it!A89,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$8071d68f-4ec8-11e8-9aa4-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F90,"$ WHERE fk_glacier=$",fr!A90,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F90,"$ WHERE fk_glacier=$",it!A90,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f7e4ecf-4ec8-11e8-a772-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F91,"$ WHERE fk_glacier=$",fr!A91,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F91,"$ WHERE fk_glacier=$",it!A91,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$802711f0-4ec8-11e8-9b4c-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F92,"$ WHERE fk_glacier=$",fr!A92,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F92,"$ WHERE fk_glacier=$",it!A92,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$819dfa80-4ec8-11e8-afaa-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F93,"$ WHERE fk_glacier=$",fr!A93,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F93,"$ WHERE fk_glacier=$",it!A93,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$818dcde1-4ec8-11e8-8edf-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F94,"$ WHERE fk_glacier=$",fr!A94,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F94,"$ WHERE fk_glacier=$",it!A94,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$8002c10f-4ec8-11e8-a586-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F95,"$ WHERE fk_glacier=$",fr!A95,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F95,"$ WHERE fk_glacier=$",it!A95,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$80a78c8f-4ec8-11e8-bc82-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F96,"$ WHERE fk_glacier=$",fr!A96,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F96,"$ WHERE fk_glacier=$",it!A96,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$8058d04f-4ec8-11e8-89da-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F97,"$ WHERE fk_glacier=$",fr!A97,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F97,"$ WHERE fk_glacier=$",it!A97,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$80ef6b00-4ec8-11e8-9d50-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F98,"$ WHERE fk_glacier=$",fr!A98,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F98,"$ WHERE fk_glacier=$",it!A98,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$80a14b00-4ec8-11e8-ade9-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F99,"$ WHERE fk_glacier=$",fr!A99,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F99,"$ WHERE fk_glacier=$",it!A99,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$803d8021-4ec8-11e8-9eaa-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F100,"$ WHERE fk_glacier=$",fr!A100,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F100,"$ WHERE fk_glacier=$",it!A100,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$8085acb0-4ec8-11e8-802e-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F101,"$ WHERE fk_glacier=$",fr!A101,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F101,"$ WHERE fk_glacier=$",it!A101,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7fb7120f-4ec8-11e8-be72-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F102,"$ WHERE fk_glacier=$",fr!A102,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F102,"$ WHERE fk_glacier=$",it!A102,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$804e4900-4ec8-11e8-938f-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F103,"$ WHERE fk_glacier=$",fr!A103,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F103,"$ WHERE fk_glacier=$",it!A103,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$81a65ef0-4ec8-11e8-b44e-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F104,"$ WHERE fk_glacier=$",fr!A104,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F104,"$ WHERE fk_glacier=$",it!A104,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$81c383e1-4ec8-11e8-96ba-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F105,"$ WHERE fk_glacier=$",fr!A105,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F105,"$ WHERE fk_glacier=$",it!A105,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f1f8d00-4ec8-11e8-9ac4-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F106,"$ WHERE fk_glacier=$",fr!A106,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F106,"$ WHERE fk_glacier=$",it!A106,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$81908d00-4ec8-11e8-8006-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F107,"$ WHERE fk_glacier=$",fr!A107,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F107,"$ WHERE fk_glacier=$",it!A107,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$80e4bc9e-4ec8-11e8-a0f7-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F108,"$ WHERE fk_glacier=$",fr!A108,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F108,"$ WHERE fk_glacier=$",it!A108,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7ffca691-4ec8-11e8-a8b6-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F109,"$ WHERE fk_glacier=$",fr!A109,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F109,"$ WHERE fk_glacier=$",it!A109,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$808bee40-4ec8-11e8-ad08-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F110,"$ WHERE fk_glacier=$",fr!A110,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F110,"$ WHERE fk_glacier=$",it!A110,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$805267b0-4ec8-11e8-b67c-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F111,"$ WHERE fk_glacier=$",fr!A111,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F111,"$ WHERE fk_glacier=$",it!A111,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$80ee598f-4ec8-11e8-8b7a-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F112,"$ WHERE fk_glacier=$",fr!A112,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F112,"$ WHERE fk_glacier=$",it!A112,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$8035df00-4ec8-11e8-b025-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F113,"$ WHERE fk_glacier=$",fr!A113,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F113,"$ WHERE fk_glacier=$",it!A113,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$813e9c70-4ec8-11e8-bda0-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F114,"$ WHERE fk_glacier=$",fr!A114,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F114,"$ WHERE fk_glacier=$",it!A114,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$81b9bfde-4ec8-11e8-92e2-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F115,"$ WHERE fk_glacier=$",fr!A115,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F115,"$ WHERE fk_glacier=$",it!A115,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$8201c561-4ec8-11e8-98b0-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F116,"$ WHERE fk_glacier=$",fr!A116,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F116,"$ WHERE fk_glacier=$",it!A116,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$80200d0f-4ec8-11e8-84c6-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F117,"$ WHERE fk_glacier=$",fr!A117,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F117,"$ WHERE fk_glacier=$",it!A117,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7fa1b551-4ec8-11e8-a87e-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F118,"$ WHERE fk_glacier=$",fr!A118,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F118,"$ WHERE fk_glacier=$",it!A118,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$8033e330-4ec8-11e8-a89b-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F119,"$ WHERE fk_glacier=$",fr!A119,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F119,"$ WHERE fk_glacier=$",it!A119,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$821610ae-4ec8-11e8-a4cf-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F120,"$ WHERE fk_glacier=$",fr!A120,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F120,"$ WHERE fk_glacier=$",it!A120,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$80f6be00-4ec8-11e8-85b0-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F121,"$ WHERE fk_glacier=$",fr!A121,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F121,"$ WHERE fk_glacier=$",it!A121,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$81c24b5e-4ec8-11e8-aa36-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F122,"$ WHERE fk_glacier=$",fr!A122,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F122,"$ WHERE fk_glacier=$",it!A122,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7fe6385e-4ec8-11e8-8171-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F123,"$ WHERE fk_glacier=$",fr!A123,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F123,"$ WHERE fk_glacier=$",it!A123,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$80f20311-4ec8-11e8-9260-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F124,"$ WHERE fk_glacier=$",fr!A124,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F124,"$ WHERE fk_glacier=$",it!A124,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$807ad740-4ec8-11e8-8f59-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F125,"$ WHERE fk_glacier=$",fr!A125,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F125,"$ WHERE fk_glacier=$",it!A125,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$80dc0a0f-4ec8-11e8-99e8-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F126,"$ WHERE fk_glacier=$",fr!A126,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F126,"$ WHERE fk_glacier=$",it!A126,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$80515640-4ec8-11e8-b4ef-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F127,"$ WHERE fk_glacier=$",fr!A127,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F127,"$ WHERE fk_glacier=$",it!A127,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7fadc340-4ec8-11e8-bb58-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F128,"$ WHERE fk_glacier=$",fr!A128,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F128,"$ WHERE fk_glacier=$",it!A128,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7fea570f-4ec8-11e8-94b8-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F129,"$ WHERE fk_glacier=$",fr!A129,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F129,"$ WHERE fk_glacier=$",it!A129,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f580221-4ec8-11e8-8098-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F130,"$ WHERE fk_glacier=$",fr!A130,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F130,"$ WHERE fk_glacier=$",it!A130,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7fb4a10f-4ec8-11e8-8ed2-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F131,"$ WHERE fk_glacier=$",fr!A131,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F131,"$ WHERE fk_glacier=$",it!A131,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$80a394ee-4ec8-11e8-984c-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F132,"$ WHERE fk_glacier=$",fr!A132,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F132,"$ WHERE fk_glacier=$",it!A132,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$80644200-4ec8-11e8-aa15-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F133,"$ WHERE fk_glacier=$",fr!A133,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F133,"$ WHERE fk_glacier=$",it!A133,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$80013a70-4ec8-11e8-9d58-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F134,"$ WHERE fk_glacier=$",fr!A134,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F134,"$ WHERE fk_glacier=$",it!A134,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$81e71170-4ec8-11e8-a1a7-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F135,"$ WHERE fk_glacier=$",fr!A135,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F135,"$ WHERE fk_glacier=$",it!A135,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$81d229de-4ec8-11e8-91db-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F136,"$ WHERE fk_glacier=$",fr!A136,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F136,"$ WHERE fk_glacier=$",it!A136,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$81d8445e-4ec8-11e8-9ffa-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F137,"$ WHERE fk_glacier=$",fr!A137,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F137,"$ WHERE fk_glacier=$",it!A137,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$819d5e40-4ec8-11e8-ab3d-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F138,"$ WHERE fk_glacier=$",fr!A138,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F138,"$ WHERE fk_glacier=$",it!A138,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$81db2a8f-4ec8-11e8-b718-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F139,"$ WHERE fk_glacier=$",fr!A139,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F139,"$ WHERE fk_glacier=$",it!A139,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$82230900-4ec8-11e8-a7f2-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F140,"$ WHERE fk_glacier=$",fr!A140,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F140,"$ WHERE fk_glacier=$",it!A140,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$81fdcdc0-4ec8-11e8-a3b5-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F141,"$ WHERE fk_glacier=$",fr!A141,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F141,"$ WHERE fk_glacier=$",it!A141,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$8206804f-4ec8-11e8-8aeb-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F142,"$ WHERE fk_glacier=$",fr!A142,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F142,"$ WHERE fk_glacier=$",it!A142,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$81f51b30-4ec8-11e8-b578-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F143,"$ WHERE fk_glacier=$",fr!A143,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F143,"$ WHERE fk_glacier=$",it!A143,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$81f1bfcf-4ec8-11e8-84aa-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F144,"$ WHERE fk_glacier=$",fr!A144,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F144,"$ WHERE fk_glacier=$",it!A144,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$8220e621-4ec8-11e8-a1de-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F145,"$ WHERE fk_glacier=$",fr!A145,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F145,"$ WHERE fk_glacier=$",it!A145,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$81f430cf-4ec8-11e8-8fd6-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F146,"$ WHERE fk_glacier=$",fr!A146,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F146,"$ WHERE fk_glacier=$",it!A146,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$82098d8f-4ec8-11e8-936e-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F147,"$ WHERE fk_glacier=$",fr!A147,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
-        <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$81e98270-4ec8-11e8-86b3-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F147,"$ WHERE fk_glacier=$",it!A147,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$81ed04e1-4ec8-11e8-a1f7-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F148,"$ WHERE fk_glacier=$",fr!A148,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F148,"$ WHERE fk_glacier=$",it!A148,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$81ec1a80-4ec8-11e8-8d89-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F149,"$ WHERE fk_glacier=$",fr!A149,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F149,"$ WHERE fk_glacier=$",it!A149,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$82172221-4ec8-11e8-aa3c-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F150,"$ WHERE fk_glacier=$",fr!A150,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F150,"$ WHERE fk_glacier=$",it!A150,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$82196c0f-4ec8-11e8-b379-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F151,"$ WHERE fk_glacier=$",fr!A151,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F151,"$ WHERE fk_glacier=$",it!A151,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$8214b121-4ec8-11e8-b161-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F152,"$ WHERE fk_glacier=$",fr!A152,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F152,"$ WHERE fk_glacier=$",it!A152,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$810786de-4ec8-11e8-bd45-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F153,"$ WHERE fk_glacier=$",fr!A153,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F153,"$ WHERE fk_glacier=$",it!A153,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$805c79d1-4ec8-11e8-8b15-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F154,"$ WHERE fk_glacier=$",fr!A154,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F154,"$ WHERE fk_glacier=$",it!A154,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f78344f-4ec8-11e8-858b-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
-        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", fr!F155,"$ WHERE fk_glacier=$",fr!A155,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
+        <f>CONCATENATE("UPDATE base_data.glacier_description SET description =$", it!F155,"$ WHERE fk_glacier=$",it!A155,"$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$")</f>
         <v>UPDATE base_data.glacier_description SET description =$$ WHERE fk_glacier=$7f9a3b40-4ec8-11e8-9c5e-985fd331b2ee$ AND fk_language_type=$fr$ AND fk_glacier_description_type =$0$</v>
       </c>
     </row>
